--- a/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,178 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r250203826-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>73345</t>
+  </si>
+  <si>
+    <t>250203826</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>New Year's Eve Nightmare</t>
+  </si>
+  <si>
+    <t>I was very disappointed w/my stay New Year's Eve with motel and reservation line,due to I made reservation 3days prior to stay in which my card was debited then in which I reserved a Jacuzzi Suite.When I arrived @6pm there were signs on door sayin no rms available.I was made to check in at the window like a caged animal it took them 30 mins to verify and hand me my keys.Then when I went to rm it was like a last resort JUST to give me a rm. Then when tried to use Jacuzzi there was no button to push so couldn't be used.I called frt desk for over an hr no response.So that was extra money for nothing.When I checked out I told Mangmt in which housekeeping told him the same it didnt wrk had to plug something in to wall(Really)I asked for a new room due to mine was not in ord he said I would have to pay more money to stay another night I asked who do I report my issue to he said to the people I made my reservation.I did so and They told me to take it up with the mngmt of the mesq Inn.I was very unhappy and was very offended my mngt cause if I didn't get what I paid for something Needs be done about,..MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very disappointed w/my stay New Year's Eve with motel and reservation line,due to I made reservation 3days prior to stay in which my card was debited then in which I reserved a Jacuzzi Suite.When I arrived @6pm there were signs on door sayin no rms available.I was made to check in at the window like a caged animal it took them 30 mins to verify and hand me my keys.Then when I went to rm it was like a last resort JUST to give me a rm. Then when tried to use Jacuzzi there was no button to push so couldn't be used.I called frt desk for over an hr no response.So that was extra money for nothing.When I checked out I told Mangmt in which housekeeping told him the same it didnt wrk had to plug something in to wall(Really)I asked for a new room due to mine was not in ord he said I would have to pay more money to stay another night I asked who do I report my issue to he said to the people I made my reservation.I did so and They told me to take it up with the mngmt of the mesq Inn.I was very unhappy and was very offended my mngt cause if I didn't get what I paid for something Needs be done about,..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r240580079-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>240580079</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>NO NO NO NO NO NO NO NO</t>
+  </si>
+  <si>
+    <t>No no no no no. No no no no no no no. Cockroaches. No toilet paper. Filthy. Coffee pot didn't work. Shower didn't work. No no no no no no. No help with any problems. Things came up missing. No no no no no.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r214174970-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>214174970</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>If I could go below terrible, I would....</t>
+  </si>
+  <si>
+    <t>If you don't mind the taking advantage of making money off prostitition, drugs, homelessness..its's ok!   Rude staff from the manager, his staff, maids....  Rooms that say no smoking are filled and embedded with smoking of all kinds...blood-stained carpet, filthy dirty walls, leaky bathroom' faucets, late continental breadkfast,  oops! I mean coffee.... plastic fruit on tables...please dont believe any of those pictures you see on the internet...false advertising..Also I'm wondering if staff is legal???  Oh, also I experienced a little race discrimination...,,,with the staff...and aso they have all those "Christian magazines" perpertraing a fraud....I am so sick of people claiming they are one of Christs and just a child of the devil if you looked at the way they treat their clients...... One of the staff would not give me the name of place of worship...so I know not to go there.....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>If you don't mind the taking advantage of making money off prostitition, drugs, homelessness..its's ok!   Rude staff from the manager, his staff, maids....  Rooms that say no smoking are filled and embedded with smoking of all kinds...blood-stained carpet, filthy dirty walls, leaky bathroom' faucets, late continental breadkfast,  oops! I mean coffee.... plastic fruit on tables...please dont believe any of those pictures you see on the internet...false advertising..Also I'm wondering if staff is legal???  Oh, also I experienced a little race discrimination...,,,with the staff...and aso they have all those "Christian magazines" perpertraing a fraud....I am so sick of people claiming they are one of Christs and just a child of the devil if you looked at the way they treat their clients...... One of the staff would not give me the name of place of worship...so I know not to go there.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r178660144-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>178660144</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>worst  hotel of our trip</t>
+  </si>
+  <si>
+    <t>a terrible hotel we arrived  and at first glance seemed ok they have a nice brochure but forget anything it says.we booked for 2 nights a big mistake.room rate was the highest in a  months stay in the USA.they said there was a full continental breakfast forget it not even coffee each time i went to reception which was locked i had to talk through the door and was assured the breakfast was on the way it never arrived nor the next morning.the breakfast area looked like it was not in use.when we got back from a wonderful day in dallas.our room was as we had left it.when i complained i was told we had not asked for our room to be cleaned. and the housekeeping staff had gone home and there was no clean linen.the pool was a dark green not been in use for some time.oh and the wifi was not working.our worst hotel ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>a terrible hotel we arrived  and at first glance seemed ok they have a nice brochure but forget anything it says.we booked for 2 nights a big mistake.room rate was the highest in a  months stay in the USA.they said there was a full continental breakfast forget it not even coffee each time i went to reception which was locked i had to talk through the door and was assured the breakfast was on the way it never arrived nor the next morning.the breakfast area looked like it was not in use.when we got back from a wonderful day in dallas.our room was as we had left it.when i complained i was told we had not asked for our room to be cleaned. and the housekeeping staff had gone home and there was no clean linen.the pool was a dark green not been in use for some time.oh and the wifi was not working.our worst hotel ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r131822120-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>131822120</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Great bargain!</t>
+  </si>
+  <si>
+    <t>We had a great experience here. Our biggest concern was value. Although it's not a franchise hotel, you just cant beat their rates. The desk clerk greeted us with respect and even gave us a deal. The room was spacious and quiet and did the job for us. We also requested a late checkout and he gave it to us. Definately would come back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r124502309-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>124502309</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>Never again!!!!</t>
+  </si>
+  <si>
+    <t>My first problem was 17 calls that took up 45 minutes of my time before the phone was ever answered, to have the deskclerk argue that he'd only stepped away 10 minutes. Obviously, they don't tell time where he's from. Around 2:30AM, we were blsted out of bed by the smoke alarms that sounded a good 30 minutes, nonstop. We were never called &amp; apologized to nor had the situation explained. They sounded every 10 - 15 minutes for different lengtys of time...lacking 30 minutes being a solid 12 hours. Again, no explanation. Last night, we were awakened around midnight to an occupant on the second floor above us stomping, yelling, screaming &amp; fighting. It happened to be the very same person my husband had seen climbing out the room WINDOW earlier in the day. The fight in the room led to the parking lot, where profanities, screaming, yelling, racing engines, etc., began &amp; lasted at least 30 minutes. We were afraid gunss would start blaring &amp; weren't able to go to bed until 3AM, when they finally shut up. At checkout, the deskclerk claimed no knowledge. We weren't comped for our discomfort. He said he'd check the camaras. Whatever!! They can take that place &amp; stick it!! We will NEVER be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>My first problem was 17 calls that took up 45 minutes of my time before the phone was ever answered, to have the deskclerk argue that he'd only stepped away 10 minutes. Obviously, they don't tell time where he's from. Around 2:30AM, we were blsted out of bed by the smoke alarms that sounded a good 30 minutes, nonstop. We were never called &amp; apologized to nor had the situation explained. They sounded every 10 - 15 minutes for different lengtys of time...lacking 30 minutes being a solid 12 hours. Again, no explanation. Last night, we were awakened around midnight to an occupant on the second floor above us stomping, yelling, screaming &amp; fighting. It happened to be the very same person my husband had seen climbing out the room WINDOW earlier in the day. The fight in the room led to the parking lot, where profanities, screaming, yelling, racing engines, etc., began &amp; lasted at least 30 minutes. We were afraid gunss would start blaring &amp; weren't able to go to bed until 3AM, when they finally shut up. At checkout, the deskclerk claimed no knowledge. We weren't comped for our discomfort. He said he'd check the camaras. Whatever!! They can take that place &amp; stick it!! We will NEVER be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r7431566-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>7431566</t>
+  </si>
+  <si>
+    <t>04/24/2007</t>
+  </si>
+  <si>
+    <t>bad does not explain this</t>
+  </si>
+  <si>
+    <t>My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.
+We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). 
+Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we...My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we stayed another night and  to my surprise there wasn’t but that was ok. So I went down to the office myself I rang the bell, knocked on the window and door several  times, and  I had no answer. I went back to the room and had my girlfriend to call the office several times and no answer. I tried going back to the office once more, I was actually going to reserve the room for the next day so we wouldn’t have any disruptions in the morning. I don’t know If your rep was intentionally ignoring us, or if he left, or he may have been sleep. I really don’t care but that does not make your guests feel safe or welcome. So now I am writing this. I would just like to say you have a nice establishment and it would do even better with the proper customer service.I am sure you have surveillance cameras for the safety of your guests so you can check them to verify all that I am telling you.  I don’t even recall a name badge to tell you what his name was.Thanks for taking the time to read this. Sorry to disturb you with bad news. But I do love the room.My name Is Keterrious JonesWe were in room 116April 25, 2007**all of this happened between the hours of 10pm-2amMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.
+We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). 
+Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we...My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we stayed another night and  to my surprise there wasn’t but that was ok. So I went down to the office myself I rang the bell, knocked on the window and door several  times, and  I had no answer. I went back to the room and had my girlfriend to call the office several times and no answer. I tried going back to the office once more, I was actually going to reserve the room for the next day so we wouldn’t have any disruptions in the morning. I don’t know If your rep was intentionally ignoring us, or if he left, or he may have been sleep. I really don’t care but that does not make your guests feel safe or welcome. So now I am writing this. I would just like to say you have a nice establishment and it would do even better with the proper customer service.I am sure you have surveillance cameras for the safety of your guests so you can check them to verify all that I am telling you.  I don’t even recall a name badge to tell you what his name was.Thanks for taking the time to read this. Sorry to disturb you with bad news. But I do love the room.My name Is Keterrious JonesWe were in room 116April 25, 2007**all of this happened between the hours of 10pm-2amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r2149014-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>2149014</t>
+  </si>
+  <si>
+    <t>06/02/2004</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We have stayed at other Best Westerns in the past and have always been happy. This was not the case.       The furniture, beds  and trashcans had Carpet Fresh surrounding everything. The bathtub water would not cut off. It ran the whole night. Mold was surrounding the bathtub.  Both bibles in the room had been cut out to hide, I assume, wallets or such. The air conditioner leaked, by the morning the floor was soaking wet.  Breakfast did not run to specified time, they put everything up early.      Specials for rooms alternated from when we checked in to the next morning. Stopped to get a room since they were advertising a special on the jacuzzi rooms. Inquired about the room  special,  the price was $139. He came down on the price to $119. Military discount only available Mon-Thurs. The next morning the jacuzzi room was on special for $99.      Email us if you would like to see the pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at other Best Westerns in the past and have always been happy. This was not the case.       The furniture, beds  and trashcans had Carpet Fresh surrounding everything. The bathtub water would not cut off. It ran the whole night. Mold was surrounding the bathtub.  Both bibles in the room had been cut out to hide, I assume, wallets or such. The air conditioner leaked, by the morning the floor was soaking wet.  Breakfast did not run to specified time, they put everything up early.      Specials for rooms alternated from when we checked in to the next morning. Stopped to get a room since they were advertising a special on the jacuzzi rooms. Inquired about the room  special,  the price was $139. He came down on the price to $119. Military discount only available Mon-Thurs. The next morning the jacuzzi room was on special for $99.      Email us if you would like to see the pictures.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +820,520 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>shawntacoleman52</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>I was very disappointed w/my stay New Year's Eve with motel and reservation line,due to I made reservation 3days prior to stay in which my card was debited then in which I reserved a Jacuzzi Suite.When I arrived @6pm there were signs on door sayin no rms available.I was made to check in at the window like a caged animal it took them 30 mins to verify and hand me my keys.Then when I went to rm it was like a last resort JUST to give me a rm. Then when tried to use Jacuzzi there was no button to push so couldn't be used.I called frt desk for over an hr no response.So that was extra money for nothing.When I checked out I told Mangmt in which housekeeping told him the same it didnt wrk had to plug something in to wall(Really)I asked for a new room due to mine was not in ord he said I would have to pay more money to stay another night I asked who do I report my issue to he said to the people I made my reservation.I did so and They told me to take it up with the mngmt of the mesq Inn.I was very unhappy and was very offended my mngt cause if I didn't get what I paid for something Needs be done about,..More</t>
   </si>
   <si>
+    <t>Fifi101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r240580079-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Martha O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r214174970-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>If you don't mind the taking advantage of making money off prostitition, drugs, homelessness..its's ok!   Rude staff from the manager, his staff, maids....  Rooms that say no smoking are filled and embedded with smoking of all kinds...blood-stained carpet, filthy dirty walls, leaky bathroom' faucets, late continental breadkfast,  oops! I mean coffee.... plastic fruit on tables...please dont believe any of those pictures you see on the internet...false advertising..Also I'm wondering if staff is legal???  Oh, also I experienced a little race discrimination...,,,with the staff...and aso they have all those "Christian magazines" perpertraing a fraud....I am so sick of people claiming they are one of Christs and just a child of the devil if you looked at the way they treat their clients...... One of the staff would not give me the name of place of worship...so I know not to go there.....More</t>
   </si>
   <si>
+    <t>hopperoo60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r178660144-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>a terrible hotel we arrived  and at first glance seemed ok they have a nice brochure but forget anything it says.we booked for 2 nights a big mistake.room rate was the highest in a  months stay in the USA.they said there was a full continental breakfast forget it not even coffee each time i went to reception which was locked i had to talk through the door and was assured the breakfast was on the way it never arrived nor the next morning.the breakfast area looked like it was not in use.when we got back from a wonderful day in dallas.our room was as we had left it.when i complained i was told we had not asked for our room to be cleaned. and the housekeeping staff had gone home and there was no clean linen.the pool was a dark green not been in use for some time.oh and the wifi was not working.our worst hotel ever.More</t>
   </si>
   <si>
+    <t>Mark528</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r131822120-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>We had a great experience here. Our biggest concern was value. Although it's not a franchise hotel, you just cant beat their rates. The desk clerk greeted us with respect and even gave us a deal. The room was spacious and quiet and did the job for us. We also requested a late checkout and he gave it to us. Definately would come back again.</t>
   </si>
   <si>
+    <t>Dar P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r124502309-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -277,6 +295,9 @@
   </si>
   <si>
     <t>My first problem was 17 calls that took up 45 minutes of my time before the phone was ever answered, to have the deskclerk argue that he'd only stepped away 10 minutes. Obviously, they don't tell time where he's from. Around 2:30AM, we were blsted out of bed by the smoke alarms that sounded a good 30 minutes, nonstop. We were never called &amp; apologized to nor had the situation explained. They sounded every 10 - 15 minutes for different lengtys of time...lacking 30 minutes being a solid 12 hours. Again, no explanation. Last night, we were awakened around midnight to an occupant on the second floor above us stomping, yelling, screaming &amp; fighting. It happened to be the very same person my husband had seen climbing out the room WINDOW earlier in the day. The fight in the room led to the parking lot, where profanities, screaming, yelling, racing engines, etc., began &amp; lasted at least 30 minutes. We were afraid gunss would start blaring &amp; weren't able to go to bed until 3AM, when they finally shut up. At checkout, the deskclerk claimed no knowledge. We weren't comped for our discomfort. He said he'd check the camaras. Whatever!! They can take that place &amp; stick it!! We will NEVER be back.More</t>
+  </si>
+  <si>
+    <t>hunny99</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r7431566-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
@@ -302,6 +323,9 @@
     <t>My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.
 We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). 
 Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we...My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we stayed another night and  to my surprise there wasn’t but that was ok. So I went down to the office myself I rang the bell, knocked on the window and door several  times, and  I had no answer. I went back to the room and had my girlfriend to call the office several times and no answer. I tried going back to the office once more, I was actually going to reserve the room for the next day so we wouldn’t have any disruptions in the morning. I don’t know If your rep was intentionally ignoring us, or if he left, or he may have been sleep. I really don’t care but that does not make your guests feel safe or welcome. So now I am writing this. I would just like to say you have a nice establishment and it would do even better with the proper customer service.I am sure you have surveillance cameras for the safety of your guests so you can check them to verify all that I am telling you.  I don’t even recall a name badge to tell you what his name was.Thanks for taking the time to read this. Sorry to disturb you with bad news. But I do love the room.My name Is Keterrious JonesWe were in room 116April 25, 2007**all of this happened between the hours of 10pm-2amMore</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r2149014-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
@@ -824,34 +848,38 @@
       <c r="A2" t="n">
         <v>64877</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>168887</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -880,50 +908,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64877</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>168888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -943,50 +975,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64877</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
         <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1006,50 +1042,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64877</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>168889</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1073,41 +1113,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64877</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>168890</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -1136,50 +1180,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64877</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>168891</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1203,50 +1251,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64877</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>168892</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1270,41 +1322,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64877</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1331,7 +1387,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_537.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>shawntacoleman52</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r494677385-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>73345</t>
+  </si>
+  <si>
+    <t>494677385</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Fleabag beyond belief STAY AWAY!</t>
+  </si>
+  <si>
+    <t>DISGUSTING!!!!  And desk refuses to give refunds.  I wouldn't shower in this filthy tub. Please tell me what disgusting marks are on the pillows.  Red mark and all grease stained.  One pillow is so bad it was wadded up in a ball.  Bulb in toilet and shower area has bugs in fixture and it must be a 15 watt bulb.  4 fixtures on walls and one is completely broken and no bulb.  Others have 25 watt bulbs in them.  Smells in room bad. The microwave is all rusted and peeling metal.  We would just leave but only need a place to sleep. Traveling through.  It's 6 pm and can be out of here early asap in morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>DISGUSTING!!!!  And desk refuses to give refunds.  I wouldn't shower in this filthy tub. Please tell me what disgusting marks are on the pillows.  Red mark and all grease stained.  One pillow is so bad it was wadded up in a ball.  Bulb in toilet and shower area has bugs in fixture and it must be a 15 watt bulb.  4 fixtures on walls and one is completely broken and no bulb.  Others have 25 watt bulbs in them.  Smells in room bad. The microwave is all rusted and peeling metal.  We would just leave but only need a place to sleep. Traveling through.  It's 6 pm and can be out of here early asap in morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r453846939-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>453846939</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Don't make reservations here</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever been to.Something kept biting us and when we complained they would say there's nothing.Also, I've literally switch rooms 6 times because every room had something wrong with them.Don't go here they're rude and you can't get any rest if you wanted to.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r250203826-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
-    <t>56280</t>
-  </si>
-  <si>
-    <t>73345</t>
-  </si>
-  <si>
     <t>250203826</t>
   </si>
   <si>
@@ -180,9 +222,6 @@
     <t>I was very disappointed w/my stay New Year's Eve with motel and reservation line,due to I made reservation 3days prior to stay in which my card was debited then in which I reserved a Jacuzzi Suite.When I arrived @6pm there were signs on door sayin no rms available.I was made to check in at the window like a caged animal it took them 30 mins to verify and hand me my keys.Then when I went to rm it was like a last resort JUST to give me a rm. Then when tried to use Jacuzzi there was no button to push so couldn't be used.I called frt desk for over an hr no response.So that was extra money for nothing.When I checked out I told Mangmt in which housekeeping told him the same it didnt wrk had to plug something in to wall(Really)I asked for a new room due to mine was not in ord he said I would have to pay more money to stay another night I asked who do I report my issue to he said to the people I made my reservation.I did so and They told me to take it up with the mngmt of the mesq Inn.I was very unhappy and was very offended my mngt cause if I didn't get what I paid for something Needs be done about,..More</t>
   </si>
   <si>
-    <t>Fifi101</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r240580079-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -201,12 +240,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Martha O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r214174970-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -228,7 +261,40 @@
     <t>If you don't mind the taking advantage of making money off prostitition, drugs, homelessness..its's ok!   Rude staff from the manager, his staff, maids....  Rooms that say no smoking are filled and embedded with smoking of all kinds...blood-stained carpet, filthy dirty walls, leaky bathroom' faucets, late continental breadkfast,  oops! I mean coffee.... plastic fruit on tables...please dont believe any of those pictures you see on the internet...false advertising..Also I'm wondering if staff is legal???  Oh, also I experienced a little race discrimination...,,,with the staff...and aso they have all those "Christian magazines" perpertraing a fraud....I am so sick of people claiming they are one of Christs and just a child of the devil if you looked at the way they treat their clients...... One of the staff would not give me the name of place of worship...so I know not to go there.....More</t>
   </si>
   <si>
-    <t>hopperoo60</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r213169925-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>213169925</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>ABSOLUTELY HORRIBLE!!!!!</t>
+  </si>
+  <si>
+    <t>Need to be shut Down, Blood On Bathroom door, Toilet Flooded Electric power Was Cut Off For 4 hours They WIll Not CleaN The Pool Drug use and abuse and neglect  Dealing from door to door I hope no one loses they life  coming her it's so bad restaurants will not come her deliver just please please go elsewhere cause you might not make it out. I pained for a week I left in two days, they font care what goes on here all the care about is getting there money. They are careless and it's sad.........not to mention the prostitution thAt goes on here, looks can be deceiving you just keep rolling right past mesqueit inns and suites you have a better chance of keeping your life.MoreShow less</t>
+  </si>
+  <si>
+    <t>Need to be shut Down, Blood On Bathroom door, Toilet Flooded Electric power Was Cut Off For 4 hours They WIll Not CleaN The Pool Drug use and abuse and neglect  Dealing from door to door I hope no one loses they life  coming her it's so bad restaurants will not come her deliver just please please go elsewhere cause you might not make it out. I pained for a week I left in two days, they font care what goes on here all the care about is getting there money. They are careless and it's sad.........not to mention the prostitution thAt goes on here, looks can be deceiving you just keep rolling right past mesqueit inns and suites you have a better chance of keeping your life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r198470322-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>198470322</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 night...was bad..room smelled like weed even the non smoking rooms did..asked for our money back before check in and he said sorry we cant man i was scared for my life and the life of my 3 month old baby...NEVER again</t>
+  </si>
+  <si>
+    <t>April 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r178660144-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
@@ -249,15 +315,9 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>a terrible hotel we arrived  and at first glance seemed ok they have a nice brochure but forget anything it says.we booked for 2 nights a big mistake.room rate was the highest in a  months stay in the USA.they said there was a full continental breakfast forget it not even coffee each time i went to reception which was locked i had to talk through the door and was assured the breakfast was on the way it never arrived nor the next morning.the breakfast area looked like it was not in use.when we got back from a wonderful day in dallas.our room was as we had left it.when i complained i was told we had not asked for our room to be cleaned. and the housekeeping staff had gone home and there was no clean linen.the pool was a dark green not been in use for some time.oh and the wifi was not working.our worst hotel ever.More</t>
   </si>
   <si>
-    <t>Mark528</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r131822120-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -273,9 +333,6 @@
     <t>We had a great experience here. Our biggest concern was value. Although it's not a franchise hotel, you just cant beat their rates. The desk clerk greeted us with respect and even gave us a deal. The room was spacious and quiet and did the job for us. We also requested a late checkout and he gave it to us. Definately would come back again.</t>
   </si>
   <si>
-    <t>Dar P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r124502309-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -297,7 +354,47 @@
     <t>My first problem was 17 calls that took up 45 minutes of my time before the phone was ever answered, to have the deskclerk argue that he'd only stepped away 10 minutes. Obviously, they don't tell time where he's from. Around 2:30AM, we were blsted out of bed by the smoke alarms that sounded a good 30 minutes, nonstop. We were never called &amp; apologized to nor had the situation explained. They sounded every 10 - 15 minutes for different lengtys of time...lacking 30 minutes being a solid 12 hours. Again, no explanation. Last night, we were awakened around midnight to an occupant on the second floor above us stomping, yelling, screaming &amp; fighting. It happened to be the very same person my husband had seen climbing out the room WINDOW earlier in the day. The fight in the room led to the parking lot, where profanities, screaming, yelling, racing engines, etc., began &amp; lasted at least 30 minutes. We were afraid gunss would start blaring &amp; weren't able to go to bed until 3AM, when they finally shut up. At checkout, the deskclerk claimed no knowledge. We weren't comped for our discomfort. He said he'd check the camaras. Whatever!! They can take that place &amp; stick it!! We will NEVER be back.More</t>
   </si>
   <si>
-    <t>hunny99</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r74674818-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>74674818</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>Budget hotel</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend. We needed a decent fair priced hotel. The jacuzzi suite was $70. That was including taxes. The rate was definitely fair. After checking in, a shady character was outside trying to bum a cigarette. My boyfriend didn't feel like going to the truck and giving him one, so he gave him one he was at that moment smoking. Yuck. We also saw this guy a little later after parking and he bummed another cigarette.
+     The sink was clogged. Within 15 minutes, someone was there to fix it.  Afterwards, there was some sort of leak in front of the sink. I couldn't tell where it was leaking from but we were busy and had to leave the room, so we didn't take the time to report it. 
+     The jacuzzi tub was nice. We bought wine and candles. The bed was uncomfortable. This was not noticeable until after sleeping on it a couple of nights. Aching back and sore muscles were a result of a too firm mattress but I didn't notice the bed bothering me while sleeping on it. Carpet a bit worn. No problem. The towels were small, thin and poor quality. It didn't bother me but bothered my boyfriend quite a bit. The soap stinks. You should bring your own. After using it once, I used shampoo to wash my body.  The A/C was loud. It sounded like a helicopter to me. We...I stayed here with my boyfriend. We needed a decent fair priced hotel. The jacuzzi suite was $70. That was including taxes. The rate was definitely fair. After checking in, a shady character was outside trying to bum a cigarette. My boyfriend didn't feel like going to the truck and giving him one, so he gave him one he was at that moment smoking. Yuck. We also saw this guy a little later after parking and he bummed another cigarette.     The sink was clogged. Within 15 minutes, someone was there to fix it.  Afterwards, there was some sort of leak in front of the sink. I couldn't tell where it was leaking from but we were busy and had to leave the room, so we didn't take the time to report it.      The jacuzzi tub was nice. We bought wine and candles. The bed was uncomfortable. This was not noticeable until after sleeping on it a couple of nights. Aching back and sore muscles were a result of a too firm mattress but I didn't notice the bed bothering me while sleeping on it. Carpet a bit worn. No problem. The towels were small, thin and poor quality. It didn't bother me but bothered my boyfriend quite a bit. The soap stinks. You should bring your own. After using it once, I used shampoo to wash my body.  The A/C was loud. It sounded like a helicopter to me. We slept right through it. You may need to drink a few glasses of wine prior to bed to be able to do this. Light sleepers beware.     After the first morning, went to the lobby for the continental breakfast. I didn't see anything. Oh, well. I didn't care too much.       Would I stay here again. Yes. If we want a jacuzzi room I will but I will bring my own towels and soap.      The desk was a bit daunting upon arrival. There are heavy glass windows separating customers from the desk clerk. I am assuming this is for security. Security cameras with video on a large monitor. This was my number one clue perhaps this area is not the safest. I found this humerous since I had never before stayed anywhere that had this type of security. My boyfriend and I also joked, since I had asked for a confirmation number after making reservations, about the fact the desk clerk said "No, you don't need one".  I kept telling my boyfriend, I think he said my confirmation number is "5". Ha Ha.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I stayed here with my boyfriend. We needed a decent fair priced hotel. The jacuzzi suite was $70. That was including taxes. The rate was definitely fair. After checking in, a shady character was outside trying to bum a cigarette. My boyfriend didn't feel like going to the truck and giving him one, so he gave him one he was at that moment smoking. Yuck. We also saw this guy a little later after parking and he bummed another cigarette.
+     The sink was clogged. Within 15 minutes, someone was there to fix it.  Afterwards, there was some sort of leak in front of the sink. I couldn't tell where it was leaking from but we were busy and had to leave the room, so we didn't take the time to report it. 
+     The jacuzzi tub was nice. We bought wine and candles. The bed was uncomfortable. This was not noticeable until after sleeping on it a couple of nights. Aching back and sore muscles were a result of a too firm mattress but I didn't notice the bed bothering me while sleeping on it. Carpet a bit worn. No problem. The towels were small, thin and poor quality. It didn't bother me but bothered my boyfriend quite a bit. The soap stinks. You should bring your own. After using it once, I used shampoo to wash my body.  The A/C was loud. It sounded like a helicopter to me. We...I stayed here with my boyfriend. We needed a decent fair priced hotel. The jacuzzi suite was $70. That was including taxes. The rate was definitely fair. After checking in, a shady character was outside trying to bum a cigarette. My boyfriend didn't feel like going to the truck and giving him one, so he gave him one he was at that moment smoking. Yuck. We also saw this guy a little later after parking and he bummed another cigarette.     The sink was clogged. Within 15 minutes, someone was there to fix it.  Afterwards, there was some sort of leak in front of the sink. I couldn't tell where it was leaking from but we were busy and had to leave the room, so we didn't take the time to report it.      The jacuzzi tub was nice. We bought wine and candles. The bed was uncomfortable. This was not noticeable until after sleeping on it a couple of nights. Aching back and sore muscles were a result of a too firm mattress but I didn't notice the bed bothering me while sleeping on it. Carpet a bit worn. No problem. The towels were small, thin and poor quality. It didn't bother me but bothered my boyfriend quite a bit. The soap stinks. You should bring your own. After using it once, I used shampoo to wash my body.  The A/C was loud. It sounded like a helicopter to me. We slept right through it. You may need to drink a few glasses of wine prior to bed to be able to do this. Light sleepers beware.     After the first morning, went to the lobby for the continental breakfast. I didn't see anything. Oh, well. I didn't care too much.       Would I stay here again. Yes. If we want a jacuzzi room I will but I will bring my own towels and soap.      The desk was a bit daunting upon arrival. There are heavy glass windows separating customers from the desk clerk. I am assuming this is for security. Security cameras with video on a large monitor. This was my number one clue perhaps this area is not the safest. I found this humerous since I had never before stayed anywhere that had this type of security. My boyfriend and I also joked, since I had asked for a confirmation number after making reservations, about the fact the desk clerk said "No, you don't need one".  I kept telling my boyfriend, I think he said my confirmation number is "5". Ha Ha.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r39376471-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>39376471</t>
+  </si>
+  <si>
+    <t>08/31/2009</t>
+  </si>
+  <si>
+    <t>Excellent Hotel &amp; Staff</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels in the Dallas &amp; Mesquite area, I just wish I had found this one sooner. Can't beat their rates! The jacuzzi suite was clean, bed was comfortable, and the staff very helpful. The pool was very nice and clean. The staff was accomodating and friendly! The manager is wonderful and is there 24/7. The rooms are nice &amp; spacious! I loved the free high speed internet. My next trip to Dallas I know where I'll be staying!</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r7431566-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
@@ -323,9 +420,6 @@
     <t>My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.
 We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). 
 Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we...My girlfriend came here on a visit from out of town, and I brought her here to Mesquite Inn and Suites (A Best Western affiliate) because I was told they had nice rooms. No doubt the rooms were worth what I paid for ($80) and we are enjoying the Jacuzzi Suite with all the extra space. The arrangement here is nice, although I usually prefer rooms indoors.We ran into our first problem, when it came to choosing rooms. We were given a key and told to go check out the room (112). Nice except the Jacuzzi tub had nasty stains and the paint was peeling. So we got to our room, better but a light fixture (lamp) was broken, but no biggie. Then another issue, which was a small one, with the remote not working with the tv; and it had no back for the battery. We actually ended up having to change it twice and with no success of  it working, he just decided to get a manual saying “I hope this works” We also had to grab towels upon arriving because there were only two in the whole room (in a Jacuzzi Suite). Once we realized my girlfriend would be staying in town an extra day we tried to reserve the room for another night. She left the room and walked to the counter first to see if there would be a discount or anything if we stayed another night and  to my surprise there wasn’t but that was ok. So I went down to the office myself I rang the bell, knocked on the window and door several  times, and  I had no answer. I went back to the room and had my girlfriend to call the office several times and no answer. I tried going back to the office once more, I was actually going to reserve the room for the next day so we wouldn’t have any disruptions in the morning. I don’t know If your rep was intentionally ignoring us, or if he left, or he may have been sleep. I really don’t care but that does not make your guests feel safe or welcome. So now I am writing this. I would just like to say you have a nice establishment and it would do even better with the proper customer service.I am sure you have surveillance cameras for the safety of your guests so you can check them to verify all that I am telling you.  I don’t even recall a name badge to tell you what his name was.Thanks for taking the time to read this. Sorry to disturb you with bad news. But I do love the room.My name Is Keterrious JonesWe were in room 116April 25, 2007**all of this happened between the hours of 10pm-2amMore</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d73345-r2149014-Mesquite_Inn_Suites-Mesquite_Texas.html</t>
@@ -848,93 +942,79 @@
       <c r="A2" t="n">
         <v>64877</v>
       </c>
-      <c r="B2" t="n">
-        <v>168887</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64877</v>
       </c>
-      <c r="B3" t="n">
-        <v>168888</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" t="s">
         <v>56</v>
@@ -958,17 +1038,11 @@
         <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -982,56 +1056,52 @@
       <c r="A4" t="n">
         <v>64877</v>
       </c>
-      <c r="B4" t="n">
-        <v>9338</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>1</v>
@@ -1042,67 +1112,59 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64877</v>
       </c>
-      <c r="B5" t="n">
-        <v>168889</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1113,66 +1175,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64877</v>
       </c>
-      <c r="B6" t="n">
-        <v>168890</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1180,66 +1238,58 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64877</v>
       </c>
-      <c r="B7" t="n">
-        <v>168891</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O7" t="s">
-        <v>77</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1251,129 +1301,117 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64877</v>
       </c>
-      <c r="B8" t="n">
-        <v>168892</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64877</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
@@ -1387,7 +1425,399 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
         <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64877</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
